--- a/evm/src/main/webapp/import-template.xlsx
+++ b/evm/src/main/webapp/import-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="18540" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
   <si>
-    <t>设备唯一ID</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
+    <t>设备唯一ID(本行不可删除，数据从第二行开始计算)</t>
   </si>
 </sst>
 </file>
@@ -50,6 +38,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -73,6 +77,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -81,38 +106,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,36 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -164,6 +153,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,16 +168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +191,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -221,19 +215,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,145 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,6 +382,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,17 +445,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,15 +459,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,8 +477,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,10 +490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,133 +502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -970,13 +958,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="30.1818181818182" customWidth="1"/>
   </cols>
@@ -987,24 +975,10 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
